--- a/resource/测试数据1条.xlsx
+++ b/resource/测试数据1条.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,16 @@
     </r>
   </si>
   <si>
-    <t>0x70B36641d9618c80E31F6404ee144497ec56c006</t>
+    <t>0x01e290c8319E749f85365a0AE72E859765667c7b</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>9c7e4790ee804e509e6b5dd9deb20bd1</t>
+    <t>460ea72bba41423f8d144505f4866689</t>
   </si>
   <si>
-    <t>SHIfeng0615</t>
+    <t>Prl030226</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
